--- a/Templatee.xlsx
+++ b/Templatee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\absen-siswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1797CF25-DB18-4590-A9E0-28AF833139E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA0601-D952-458E-991C-2F279D28D607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8DB5D17-6376-4A9A-884A-E7B3AA4AFB8F}"/>
   </bookViews>
@@ -60,12 +60,6 @@
     <t>Alamat</t>
   </si>
   <si>
-    <t>John Doe9</t>
-  </si>
-  <si>
-    <t>john.doe250@example.com</t>
-  </si>
-  <si>
     <t>inipassword</t>
   </si>
   <si>
@@ -75,16 +69,22 @@
     <t>Jalan Merdeka No. 2</t>
   </si>
   <si>
-    <t>John Doe10</t>
-  </si>
-  <si>
-    <t>john.doe252@example.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">081234567891	</t>
   </si>
   <si>
     <t>Jalan Merdeka No. 3</t>
+  </si>
+  <si>
+    <t>John Doe12</t>
+  </si>
+  <si>
+    <t>John Doe13</t>
+  </si>
+  <si>
+    <t>john.doe257@example.com</t>
+  </si>
+  <si>
+    <t>john.doe259@example.com</t>
   </si>
 </sst>
 </file>
@@ -461,11 +461,15 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -504,24 +508,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="1">
-        <v>224567809</v>
+        <v>22456790</v>
       </c>
       <c r="F2" s="1">
-        <v>2245690</v>
+        <v>2245790</v>
       </c>
       <c r="G2" s="1">
         <v>2022</v>
@@ -533,30 +537,30 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1">
-        <v>224567811</v>
+        <v>224567911</v>
       </c>
       <c r="F3" s="1">
-        <v>2245692</v>
+        <v>2245780</v>
       </c>
       <c r="G3" s="1">
         <v>2022</v>
@@ -568,10 +572,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Templatee.xlsx
+++ b/Templatee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\absen-siswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA0601-D952-458E-991C-2F279D28D607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C245E9FE-AFF9-4271-A84E-7C2ED86589D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8DB5D17-6376-4A9A-884A-E7B3AA4AFB8F}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>ID_User</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Nama User</t>
   </si>
@@ -75,16 +72,16 @@
     <t>Jalan Merdeka No. 3</t>
   </si>
   <si>
-    <t>John Doe12</t>
-  </si>
-  <si>
-    <t>John Doe13</t>
-  </si>
-  <si>
-    <t>john.doe257@example.com</t>
-  </si>
-  <si>
-    <t>john.doe259@example.com</t>
+    <t>John Doe16</t>
+  </si>
+  <si>
+    <t>John Doe17</t>
+  </si>
+  <si>
+    <t>john.doe283@example.com</t>
+  </si>
+  <si>
+    <t>john.doe284@example.com</t>
   </si>
 </sst>
 </file>
@@ -458,22 +455,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B120E0C1-CED5-4F73-A3B4-3ADD7C61EBD9}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,85 +504,76 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D2" s="1">
+        <v>23456990</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2345890</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1">
-        <v>22456790</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2245790</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="D3" s="1">
+        <v>234568911</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2345880</v>
+      </c>
+      <c r="F3" s="1">
         <v>2022</v>
       </c>
-      <c r="H2" s="1">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <v>224567911</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2245780</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2022</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2:C3" r:id="rId1" display="john.doe234@example.com" xr:uid="{08BE5141-7967-4405-A375-A361DDE1FD48}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{083D718F-1438-437E-869F-0E2D8752F3EF}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{D2E7388E-FC8C-495F-979D-71AB0D645508}"/>
+    <hyperlink ref="B2:B3" r:id="rId1" display="john.doe234@example.com" xr:uid="{08BE5141-7967-4405-A375-A361DDE1FD48}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{083D718F-1438-437E-869F-0E2D8752F3EF}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{D2E7388E-FC8C-495F-979D-71AB0D645508}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Templatee.xlsx
+++ b/Templatee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\absen-siswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C245E9FE-AFF9-4271-A84E-7C2ED86589D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C1582-D086-4BF0-9E8E-8553CDA14378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8DB5D17-6376-4A9A-884A-E7B3AA4AFB8F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Nama User</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Tahun Masuk</t>
   </si>
   <si>
-    <t>id_tahunajar</t>
-  </si>
-  <si>
     <t>ID_Kelas</t>
   </si>
   <si>
@@ -57,31 +54,55 @@
     <t>Alamat</t>
   </si>
   <si>
-    <t>inipassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">081234567890	</t>
-  </si>
-  <si>
-    <t>Jalan Merdeka No. 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">081234567891	</t>
-  </si>
-  <si>
-    <t>Jalan Merdeka No. 3</t>
-  </si>
-  <si>
-    <t>John Doe16</t>
-  </si>
-  <si>
-    <t>John Doe17</t>
-  </si>
-  <si>
-    <t>john.doe283@example.com</t>
-  </si>
-  <si>
-    <t>john.doe284@example.com</t>
+    <t>ID_tahunajar</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>jane.smith42@example.com</t>
+  </si>
+  <si>
+    <t>mypassword</t>
+  </si>
+  <si>
+    <t>Jalan Jenderal Sudirman</t>
+  </si>
+  <si>
+    <t>Mark Johnson</t>
+  </si>
+  <si>
+    <t>mark.johnson98@example.com</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>Jalan Gatot Subroto</t>
+  </si>
+  <si>
+    <t>Sarah Adams</t>
+  </si>
+  <si>
+    <t>sarah.adams29@example.com</t>
+  </si>
+  <si>
+    <t>abcdefg</t>
+  </si>
+  <si>
+    <t>Jalan Imam Bonjol</t>
+  </si>
+  <si>
+    <t>Mike Wilson</t>
+  </si>
+  <si>
+    <t>mike.wilson15@example.com</t>
+  </si>
+  <si>
+    <t>qwerty123</t>
+  </si>
+  <si>
+    <t>Jalan Diponegoro</t>
   </si>
 </sst>
 </file>
@@ -105,27 +126,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9.6"/>
       <color rgb="FF374151"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -135,9 +185,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -455,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B120E0C1-CED5-4F73-A3B4-3ADD7C61EBD9}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,6 +522,8 @@
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="36.77734375" customWidth="1"/>
@@ -493,88 +549,154 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45678901</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4567890</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>81234567891</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1233678</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1234567</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>81234567892</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>23456990</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2345890</v>
-      </c>
-      <c r="F2" s="1">
+    </row>
+    <row r="4" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>98765432</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9876543</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>81234567893</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1">
+        <v>54321678</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5432167</v>
+      </c>
+      <c r="F5" s="1">
         <v>2022</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>234568911</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2345880</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>81234567894</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2:B3" r:id="rId1" display="john.doe234@example.com" xr:uid="{08BE5141-7967-4405-A375-A361DDE1FD48}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{083D718F-1438-437E-869F-0E2D8752F3EF}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{D2E7388E-FC8C-495F-979D-71AB0D645508}"/>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:jane.smith42@example.com" xr:uid="{40F12905-1390-4DC4-9F90-D478F249E560}"/>
+    <hyperlink ref="B3" r:id="rId2" display="mailto:mark.johnson98@example.com" xr:uid="{09AF7585-28FA-4E71-AA53-E84D54AB7CDC}"/>
+    <hyperlink ref="B4" r:id="rId3" display="mailto:sarah.adams29@example.com" xr:uid="{27A6BA73-7536-43CA-8130-C5B2AAD8165E}"/>
+    <hyperlink ref="B5" r:id="rId4" display="mailto:mike.wilson15@example.com" xr:uid="{880D2100-C5B0-48C8-A4CA-C4C9BC5F2B13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Templatee.xlsx
+++ b/Templatee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\absen-siswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C1582-D086-4BF0-9E8E-8553CDA14378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6C3097-FD4D-48ED-BB18-8BB83FBF2D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8DB5D17-6376-4A9A-884A-E7B3AA4AFB8F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Nama User</t>
   </si>
@@ -57,52 +57,58 @@
     <t>ID_tahunajar</t>
   </si>
   <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>jane.smith42@example.com</t>
-  </si>
-  <si>
     <t>mypassword</t>
   </si>
   <si>
     <t>Jalan Jenderal Sudirman</t>
   </si>
   <si>
-    <t>Mark Johnson</t>
-  </si>
-  <si>
-    <t>mark.johnson98@example.com</t>
-  </si>
-  <si>
     <t>password123</t>
   </si>
   <si>
     <t>Jalan Gatot Subroto</t>
   </si>
   <si>
-    <t>Sarah Adams</t>
-  </si>
-  <si>
-    <t>sarah.adams29@example.com</t>
-  </si>
-  <si>
     <t>abcdefg</t>
   </si>
   <si>
     <t>Jalan Imam Bonjol</t>
   </si>
   <si>
-    <t>Mike Wilson</t>
-  </si>
-  <si>
-    <t>mike.wilson15@example.com</t>
-  </si>
-  <si>
     <t>qwerty123</t>
   </si>
   <si>
     <t>Jalan Diponegoro</t>
+  </si>
+  <si>
+    <t>Alex Smith</t>
+  </si>
+  <si>
+    <t>alex.smith27@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8765432	</t>
+  </si>
+  <si>
+    <t>Emily Davis</t>
+  </si>
+  <si>
+    <t>emily.davis64@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3456789	</t>
+  </si>
+  <si>
+    <t>Ryan Wilson</t>
+  </si>
+  <si>
+    <t>ryan.wilson11@example.com</t>
+  </si>
+  <si>
+    <t>Sophia Adams</t>
+  </si>
+  <si>
+    <t>sophia.adams53@example.com</t>
   </si>
 </sst>
 </file>
@@ -512,7 +518,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,19 +569,19 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="1">
-        <v>45678901</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4567890</v>
+        <v>87654321</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>2021</v>
@@ -590,24 +596,24 @@
         <v>81234567891</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
-        <v>1233678</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1234567</v>
+        <v>34567890</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>2023</v>
@@ -622,18 +628,18 @@
         <v>81234567892</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>98765432</v>
@@ -654,24 +660,24 @@
         <v>81234567893</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>54321678</v>
+        <v>56789012</v>
       </c>
       <c r="E5" s="1">
-        <v>5432167</v>
+        <v>5678901</v>
       </c>
       <c r="F5" s="1">
         <v>2022</v>
@@ -686,17 +692,17 @@
         <v>81234567894</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="mailto:jane.smith42@example.com" xr:uid="{40F12905-1390-4DC4-9F90-D478F249E560}"/>
-    <hyperlink ref="B3" r:id="rId2" display="mailto:mark.johnson98@example.com" xr:uid="{09AF7585-28FA-4E71-AA53-E84D54AB7CDC}"/>
-    <hyperlink ref="B4" r:id="rId3" display="mailto:sarah.adams29@example.com" xr:uid="{27A6BA73-7536-43CA-8130-C5B2AAD8165E}"/>
-    <hyperlink ref="B5" r:id="rId4" display="mailto:mike.wilson15@example.com" xr:uid="{880D2100-C5B0-48C8-A4CA-C4C9BC5F2B13}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{880D2100-C5B0-48C8-A4CA-C4C9BC5F2B13}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{27A6BA73-7536-43CA-8130-C5B2AAD8165E}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{09AF7585-28FA-4E71-AA53-E84D54AB7CDC}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{40F12905-1390-4DC4-9F90-D478F249E560}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Templatee.xlsx
+++ b/Templatee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\absen-siswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6C3097-FD4D-48ED-BB18-8BB83FBF2D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE83ABF-9A56-48FA-ADE0-BF8085F7415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8DB5D17-6376-4A9A-884A-E7B3AA4AFB8F}"/>
   </bookViews>
@@ -81,34 +81,34 @@
     <t>Jalan Diponegoro</t>
   </si>
   <si>
-    <t>Alex Smith</t>
-  </si>
-  <si>
-    <t>alex.smith27@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8765432	</t>
-  </si>
-  <si>
-    <t>Emily Davis</t>
-  </si>
-  <si>
-    <t>emily.davis64@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3456789	</t>
-  </si>
-  <si>
-    <t>Ryan Wilson</t>
-  </si>
-  <si>
-    <t>ryan.wilson11@example.com</t>
-  </si>
-  <si>
-    <t>Sophia Adams</t>
-  </si>
-  <si>
-    <t>sophia.adams53@example.com</t>
+    <t>Alex Smith2</t>
+  </si>
+  <si>
+    <t>Emily Davis2</t>
+  </si>
+  <si>
+    <t>Ryan Wilson2</t>
+  </si>
+  <si>
+    <t>Sophia Adams2</t>
+  </si>
+  <si>
+    <t>alex.smith227@example.com</t>
+  </si>
+  <si>
+    <t>emily.davis264@example.com</t>
+  </si>
+  <si>
+    <t>ryan.wilson211@example.com</t>
+  </si>
+  <si>
+    <t>sophia.adams253@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87654322	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34567821	</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,16 +572,16 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>87654321</v>
+        <v>876543221</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1">
         <v>2021</v>
@@ -601,19 +601,19 @@
     </row>
     <row r="3" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1">
-        <v>34567890</v>
+        <v>345678921</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>2023</v>
@@ -633,19 +633,19 @@
     </row>
     <row r="4" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>98765432</v>
+        <v>987654322</v>
       </c>
       <c r="E4" s="1">
-        <v>9876543</v>
+        <v>98765421</v>
       </c>
       <c r="F4" s="1">
         <v>2020</v>
@@ -665,19 +665,19 @@
     </row>
     <row r="5" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>56789012</v>
+        <v>567890221</v>
       </c>
       <c r="E5" s="1">
-        <v>5678901</v>
+        <v>56789211</v>
       </c>
       <c r="F5" s="1">
         <v>2022</v>
